--- a/Copia de INVENTARIO DE FELDER (Respuestas).xlsx
+++ b/Copia de INVENTARIO DE FELDER (Respuestas).xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando\Documents\EstilosAprendizajePy\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09D0250-A818-4738-9B82-B57F30A7398B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -164,20 +173,172 @@
   </si>
   <si>
     <t xml:space="preserve">44. Cuando resuelvo problemas en grupo, es más probable que yo </t>
+  </si>
+  <si>
+    <t>a) si lo practico</t>
+  </si>
+  <si>
+    <t>a) realista.</t>
+  </si>
+  <si>
+    <t>a) una imagen.</t>
+  </si>
+  <si>
+    <t>b) entender la estructura completa pero no ver claramente los detalles.</t>
+  </si>
+  <si>
+    <t>a) hablar de ello</t>
+  </si>
+  <si>
+    <t>a) que trate sobre hechos y situaciones reales de la vida</t>
+  </si>
+  <si>
+    <t>a) imágenes, diagramas, gráficas o mapas</t>
+  </si>
+  <si>
+    <t>b) el total de algo, entiendo como encajan sus partes</t>
+  </si>
+  <si>
+    <t>b) no participe y  solo escuche</t>
+  </si>
+  <si>
+    <t>a) aprender hechos.</t>
+  </si>
+  <si>
+    <t>a) revise cuidadosamente las imágenes y las gráficas.</t>
+  </si>
+  <si>
+    <t>b) frecuentemente sé cuales son las soluciones, pero luego tengo dificultad  para imaginarme los pasos para llegar a ellas..</t>
+  </si>
+  <si>
+    <t>a) he llegado a saber como son muchos de los estudiante.</t>
+  </si>
+  <si>
+    <t>a) algo que me enseñe nuevos hechos o me diga como hacer algo.</t>
+  </si>
+  <si>
+    <t>a) que utilizan muchos esquemas en el pizarrón.</t>
+  </si>
+  <si>
+    <t>b) me doy cuenta de cuales son los temas cuando termino de leer y luego tengo que regresar y encontrar los incidentes que los demuestran.</t>
+  </si>
+  <si>
+    <t>b) primero trate de entender completamente el problema.</t>
+  </si>
+  <si>
+    <t>a) certeza</t>
+  </si>
+  <si>
+    <t>a) lo que veo.</t>
+  </si>
+  <si>
+    <t>b) me dé un panorama general y relacione el material con otros temas.</t>
+  </si>
+  <si>
+    <t>b) solo.</t>
+  </si>
+  <si>
+    <t>b) creativo en la forma en la que hago mi trabajo.</t>
+  </si>
+  <si>
+    <t>a) un mapa.</t>
+  </si>
+  <si>
+    <t>b) en inicios y pausas. Me llego a confundir y súbitamente lo entiendo.</t>
+  </si>
+  <si>
+    <t>a) hacer algo y ver que sucede.</t>
+  </si>
+  <si>
+    <t>b) dicen las cosas en forma creativa e interesante.</t>
+  </si>
+  <si>
+    <t>a) la imagen.</t>
+  </si>
+  <si>
+    <t>b) trato de entender el todo antes de ir a los detalles</t>
+  </si>
+  <si>
+    <t>b) algo en lo que he pensado mucho.</t>
+  </si>
+  <si>
+    <t>a) dominar una forma de hacerlo.</t>
+  </si>
+  <si>
+    <t>b) resúmenes con texto.</t>
+  </si>
+  <si>
+    <t>a) lo haga (piense o escriba) desde el principio y avance.</t>
+  </si>
+  <si>
+    <t>a) realizar una "tormenta de ideas" donde cada uno contribuye con ideas.</t>
+  </si>
+  <si>
+    <t>b) imaginativo.</t>
+  </si>
+  <si>
+    <t>a) cómo es su apariencia.</t>
+  </si>
+  <si>
+    <t>b) hacer conexiones entre ese tema y temas relacionados.</t>
+  </si>
+  <si>
+    <t>a) abierto.</t>
+  </si>
+  <si>
+    <t>a) material concreto (hechos, datos).</t>
+  </si>
+  <si>
+    <t>a) ver televisión.</t>
+  </si>
+  <si>
+    <t>b) muy útiles para mí.</t>
+  </si>
+  <si>
+    <t>a) me parece bien.</t>
+  </si>
+  <si>
+    <t>a) tiendo a repetir todos mis pasos y revisar cuidadosamente mi trabajo.</t>
+  </si>
+  <si>
+    <t>a) fácilmente y con bastante exactitud</t>
+  </si>
+  <si>
+    <t>b) piense en las posibles consecuencias o aplicaciones de la solución en un amplio rango de campos.</t>
+  </si>
+  <si>
+    <t>tobii48@gmail.com</t>
+  </si>
+  <si>
+    <t>Merlín Solís Angel Francisco</t>
+  </si>
+  <si>
+    <t>ESCOM</t>
+  </si>
+  <si>
+    <t>Elena Fabiola Ruiz Ledesma</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -186,34 +347,45 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -403,26 +575,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AY2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="57" width="21.57"/>
+    <col min="1" max="57" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,7 +752,162 @@
         <v>50</v>
       </c>
     </row>
+    <row r="2" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>43565.520722025467</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>